--- a/data/trans_orig/P6601-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6601-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>91538</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78459</v>
+        <v>76864</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>104606</v>
+        <v>105888</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5184187849178485</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4443464701567868</v>
+        <v>0.4353167939715004</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5924296774952346</v>
+        <v>0.5996905623379379</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -765,19 +765,19 @@
         <v>97154</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84696</v>
+        <v>86330</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>106864</v>
+        <v>107626</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6859302099272602</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5979741761830787</v>
+        <v>0.6095115406509906</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7544839465219449</v>
+        <v>0.7598646024299762</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>185</v>
@@ -786,19 +786,19 @@
         <v>188692</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>168596</v>
+        <v>169565</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>205705</v>
+        <v>206180</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5929798805631759</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5298290426837511</v>
+        <v>0.5328720173829526</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6464463718847622</v>
+        <v>0.6479378272585538</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>42348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31990</v>
+        <v>30825</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56208</v>
+        <v>54965</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2398341308335779</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1811753538841065</v>
+        <v>0.174576116850565</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.318332738360244</v>
+        <v>0.3112899418328807</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -836,19 +836,19 @@
         <v>27305</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18993</v>
+        <v>18666</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37494</v>
+        <v>37815</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1927826737237528</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1340956796391882</v>
+        <v>0.1317901569638043</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2647154051529615</v>
+        <v>0.2669831847253868</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>67</v>
@@ -857,19 +857,19 @@
         <v>69653</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>55552</v>
+        <v>54872</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>85749</v>
+        <v>85689</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2188910328113351</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1745765048165501</v>
+        <v>0.1724404710195484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2694741740339153</v>
+        <v>0.2692839392411483</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>31268</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22165</v>
+        <v>21865</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43439</v>
+        <v>42287</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1770824288019769</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1255325429527989</v>
+        <v>0.1238330988785025</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2460118042146903</v>
+        <v>0.2394902982285203</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -907,19 +907,19 @@
         <v>12520</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6811</v>
+        <v>7021</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20279</v>
+        <v>19760</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08839747331391344</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04808665192374825</v>
+        <v>0.04956782091225202</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1431741389487544</v>
+        <v>0.1395088451894078</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>45</v>
@@ -928,19 +928,19 @@
         <v>43788</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33595</v>
+        <v>32215</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>59053</v>
+        <v>57337</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1376078231261218</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1055760177036814</v>
+        <v>0.1012400610712656</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1855782106386592</v>
+        <v>0.1801865872642194</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>11418</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5735</v>
+        <v>6229</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18482</v>
+        <v>19755</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06466465544659666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03248038274358305</v>
+        <v>0.03527750874468057</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1046709353840489</v>
+        <v>0.1118823795342431</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -978,19 +978,19 @@
         <v>4658</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1816</v>
+        <v>1761</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10427</v>
+        <v>9539</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03288964303507364</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01282190522812076</v>
+        <v>0.01243155550909304</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07361985825861744</v>
+        <v>0.06734584354860459</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -999,19 +999,19 @@
         <v>16076</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9414</v>
+        <v>9807</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26129</v>
+        <v>26277</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05052126349936729</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02958512352645111</v>
+        <v>0.03081900287718388</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08211306389807217</v>
+        <v>0.08257644462944905</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>283767</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>259690</v>
+        <v>260317</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>306928</v>
+        <v>309292</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5090865331257014</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.465890816569344</v>
+        <v>0.4670161508500393</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5506381624372965</v>
+        <v>0.5548775586761265</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>259</v>
@@ -1124,19 +1124,19 @@
         <v>275083</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>258591</v>
+        <v>259187</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>287380</v>
+        <v>289748</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8055669357738009</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7572707881924616</v>
+        <v>0.7590179345440059</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.841578095234078</v>
+        <v>0.8485148593665383</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>529</v>
@@ -1145,19 +1145,19 @@
         <v>558850</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>528934</v>
+        <v>527596</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>589265</v>
+        <v>590607</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6217167843699294</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5884356248130194</v>
+        <v>0.5869471753223007</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6555527613095065</v>
+        <v>0.6570459689845416</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>142350</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>120992</v>
+        <v>123296</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>163484</v>
+        <v>163554</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2553806131639291</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2170632437578351</v>
+        <v>0.2211968812903553</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2932949656917861</v>
+        <v>0.2934203646968249</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -1195,19 +1195,19 @@
         <v>49677</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38837</v>
+        <v>37222</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64659</v>
+        <v>63439</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1454768826470178</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.113731617421781</v>
+        <v>0.1090029870279819</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1893495055171914</v>
+        <v>0.1857789520384003</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>181</v>
@@ -1216,19 +1216,19 @@
         <v>192027</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>169267</v>
+        <v>167960</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>218435</v>
+        <v>219703</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2136291696613041</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1883085751458503</v>
+        <v>0.1868538818222457</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2430070304854705</v>
+        <v>0.2444184315752341</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>90613</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>72851</v>
+        <v>73486</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108143</v>
+        <v>110292</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1625623451365725</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1306962288699779</v>
+        <v>0.1318365539857582</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1940106988545986</v>
+        <v>0.1978663036110046</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1266,19 +1266,19 @@
         <v>8557</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4076</v>
+        <v>3900</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16567</v>
+        <v>16645</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02505868672476672</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0119353427869678</v>
+        <v>0.01141999866665129</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04851542751456874</v>
+        <v>0.04874309022536739</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>96</v>
@@ -1287,19 +1287,19 @@
         <v>99170</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>80997</v>
+        <v>80721</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>119976</v>
+        <v>120195</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.110325936066715</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09010861386927786</v>
+        <v>0.08980193664621935</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1334729971675908</v>
+        <v>0.1337158024291677</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>40674</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29069</v>
+        <v>29789</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55237</v>
+        <v>56584</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07297050857379699</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05215038564276245</v>
+        <v>0.05344292880015368</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09909752025075212</v>
+        <v>0.1015131215916151</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1337,19 +1337,19 @@
         <v>8160</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3941</v>
+        <v>3924</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15159</v>
+        <v>14533</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0238974948544146</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01154151798002989</v>
+        <v>0.01149024470679359</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04439200919561934</v>
+        <v>0.04255895461588145</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>45</v>
@@ -1358,19 +1358,19 @@
         <v>48835</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35570</v>
+        <v>35868</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>64670</v>
+        <v>64437</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05432810990205154</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03957188400028142</v>
+        <v>0.03990328622594463</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07194506867670383</v>
+        <v>0.07168615138431121</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>273024</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>247699</v>
+        <v>249185</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>296355</v>
+        <v>298073</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4825925068336656</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.43782792642842</v>
+        <v>0.4404554824122341</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5238306767450039</v>
+        <v>0.5268675753755308</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>220</v>
@@ -1483,19 +1483,19 @@
         <v>233971</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>216772</v>
+        <v>217445</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>246964</v>
+        <v>247880</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7682587005535213</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7117838451584156</v>
+        <v>0.7139934138594796</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8109234142762477</v>
+        <v>0.813931735645428</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>484</v>
@@ -1504,19 +1504,19 @@
         <v>506995</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>477171</v>
+        <v>477276</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>534199</v>
+        <v>534692</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5825574500564137</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5482880812800834</v>
+        <v>0.5484085089447359</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6138160209330208</v>
+        <v>0.6143818708210242</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>133123</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>113718</v>
+        <v>112606</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>153455</v>
+        <v>152809</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2353048579089464</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2010049745996873</v>
+        <v>0.1990399001542228</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2712447983021999</v>
+        <v>0.270102985275105</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>50</v>
@@ -1554,19 +1554,19 @@
         <v>52867</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>40428</v>
+        <v>41233</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>67261</v>
+        <v>67622</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1735915052233133</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1327470113207547</v>
+        <v>0.1353912330603266</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.220855414403452</v>
+        <v>0.2220410383253102</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>182</v>
@@ -1575,19 +1575,19 @@
         <v>185989</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>162675</v>
+        <v>161604</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>214631</v>
+        <v>209531</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2137091215812706</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1869201248424499</v>
+        <v>0.1856896631357935</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2466198283841201</v>
+        <v>0.2407590628594529</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>118214</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>100264</v>
+        <v>100288</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>141789</v>
+        <v>138752</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2089530514125857</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1772249759004967</v>
+        <v>0.1772675236601001</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2506226428696438</v>
+        <v>0.2452560363951374</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1625,19 +1625,19 @@
         <v>15580</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9142</v>
+        <v>9215</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24974</v>
+        <v>24795</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05115667990404405</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03001962368393503</v>
+        <v>0.03025861669852264</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08200264586482758</v>
+        <v>0.08141585145126475</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>127</v>
@@ -1646,19 +1646,19 @@
         <v>133794</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>113965</v>
+        <v>113069</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>157091</v>
+        <v>154948</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1537343882827222</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1309499491318145</v>
+        <v>0.1299203231959249</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1805042555307313</v>
+        <v>0.1780413988995745</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>41384</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30321</v>
+        <v>29772</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>55217</v>
+        <v>55122</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07314958384480236</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05359454126743311</v>
+        <v>0.05262505978615241</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09759972570899078</v>
+        <v>0.09743250284265684</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7737</v>
+        <v>7159</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006993114319121333</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02540420344652929</v>
+        <v>0.02350569652892384</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -1717,19 +1717,19 @@
         <v>43514</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>31794</v>
+        <v>31867</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59381</v>
+        <v>57338</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04999904007959344</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03653248514511965</v>
+        <v>0.03661676078528055</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06823103159918725</v>
+        <v>0.0658835776960059</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>221298</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>201489</v>
+        <v>199501</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>243259</v>
+        <v>244322</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5061012058025629</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4607990165683417</v>
+        <v>0.456253192269708</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5563254151389257</v>
+        <v>0.5587574737802575</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>117</v>
@@ -1842,19 +1842,19 @@
         <v>121841</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>109651</v>
+        <v>109320</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>133399</v>
+        <v>132483</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.721801858635728</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6495857010405675</v>
+        <v>0.6476252815844665</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7902760027876817</v>
+        <v>0.7848459981818359</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>321</v>
@@ -1863,19 +1863,19 @@
         <v>343139</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>316463</v>
+        <v>319167</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>367646</v>
+        <v>367574</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5661786026708343</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5221638534454944</v>
+        <v>0.5266259268940261</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6066151803299302</v>
+        <v>0.6064972861850726</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>97782</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>81201</v>
+        <v>81102</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>116568</v>
+        <v>116467</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2236251132863578</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1857045208629279</v>
+        <v>0.1854781206907005</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.266588389381033</v>
+        <v>0.2663570705853415</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -1913,19 +1913,19 @@
         <v>28704</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19575</v>
+        <v>19868</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39731</v>
+        <v>39614</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.170043959221771</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1159639025783455</v>
+        <v>0.1177028116479202</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2353695908623164</v>
+        <v>0.2346796081063435</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>117</v>
@@ -1934,19 +1934,19 @@
         <v>126486</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>106575</v>
+        <v>105253</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>149277</v>
+        <v>147839</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2087015782153354</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.175849163729469</v>
+        <v>0.1736679019757928</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2463066662413996</v>
+        <v>0.2439344932958734</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>88009</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>72917</v>
+        <v>71599</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>106061</v>
+        <v>104903</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2012735839850166</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1667595885085964</v>
+        <v>0.1637450697075966</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2425592612751961</v>
+        <v>0.2399103739347566</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -1984,19 +1984,19 @@
         <v>12318</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6800</v>
+        <v>6252</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20760</v>
+        <v>19806</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07297057557653612</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04028547271304336</v>
+        <v>0.03703641003182014</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1229839624932184</v>
+        <v>0.1173315570480623</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>94</v>
@@ -2005,19 +2005,19 @@
         <v>100326</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>83638</v>
+        <v>82904</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>122477</v>
+        <v>119638</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1655383617948857</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1380030766890332</v>
+        <v>0.1367914655805873</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2020872154695381</v>
+        <v>0.1974033395969242</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>30171</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20238</v>
+        <v>20647</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42559</v>
+        <v>44207</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06900009692606264</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04628475011695476</v>
+        <v>0.04721845133809004</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0973308857852867</v>
+        <v>0.1011009903248179</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2055,19 +2055,19 @@
         <v>5939</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2065</v>
+        <v>1967</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11909</v>
+        <v>12023</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03518360656596493</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01223629021668965</v>
+        <v>0.01165414360348524</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07055221023682746</v>
+        <v>0.07122625434318111</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -2076,19 +2076,19 @@
         <v>36110</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26383</v>
+        <v>25418</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49512</v>
+        <v>48397</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05958145731894462</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04353193670622334</v>
+        <v>0.04193965846307077</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08169462176818863</v>
+        <v>0.07985574177969852</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>74350</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>61415</v>
+        <v>62391</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>86047</v>
+        <v>87147</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4551050859024077</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3759323463132052</v>
+        <v>0.3819032310811428</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5267094322570143</v>
+        <v>0.5334383701649013</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -2201,19 +2201,19 @@
         <v>48227</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>40393</v>
+        <v>40959</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>54897</v>
+        <v>54667</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7502186730042669</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6283504517318954</v>
+        <v>0.6371597061745499</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8539788107390347</v>
+        <v>0.8504028782495693</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>122</v>
@@ -2222,19 +2222,19 @@
         <v>122576</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>107351</v>
+        <v>107803</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>137371</v>
+        <v>138344</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5384387564925643</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.47155796781486</v>
+        <v>0.4735462692759674</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.603428049524167</v>
+        <v>0.6077016259297494</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>32239</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23263</v>
+        <v>22568</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42961</v>
+        <v>42829</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.197337747296056</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1423946393287968</v>
+        <v>0.1381414180417035</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2629713010301411</v>
+        <v>0.2621625845936771</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2272,19 +2272,19 @@
         <v>8884</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4600</v>
+        <v>4123</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16001</v>
+        <v>15316</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1381992736120159</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07155297196984456</v>
+        <v>0.06414285807058083</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2489183192322576</v>
+        <v>0.2382621924407359</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -2293,19 +2293,19 @@
         <v>41122</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>31452</v>
+        <v>30857</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>53156</v>
+        <v>54707</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1806383261220337</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1381606527852208</v>
+        <v>0.1355445962632076</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2334986394666844</v>
+        <v>0.2403123566691238</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>46277</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>35819</v>
+        <v>36026</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>58637</v>
+        <v>59172</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2832682412297762</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2192544390763497</v>
+        <v>0.2205197871780214</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3589238427477187</v>
+        <v>0.3622024759568653</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2343,19 +2343,19 @@
         <v>5014</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1932</v>
+        <v>1964</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10540</v>
+        <v>11220</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07800365200399825</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03004928035629687</v>
+        <v>0.03055115996351904</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1639551935847529</v>
+        <v>0.1745432464433487</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>51</v>
@@ -2364,19 +2364,19 @@
         <v>51291</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>39610</v>
+        <v>39658</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>64496</v>
+        <v>66271</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2253059771729173</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1739953247029916</v>
+        <v>0.174203766825863</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2833088280123465</v>
+        <v>0.2911073267087952</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>10503</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5736</v>
+        <v>5701</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>18400</v>
+        <v>17667</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06428892557176015</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.035113200587717</v>
+        <v>0.03489929638863731</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1126313435214241</v>
+        <v>0.1081419529525268</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7707</v>
+        <v>6650</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03357840137971888</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1198929085032305</v>
+        <v>0.1034452502681298</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>13</v>
@@ -2435,19 +2435,19 @@
         <v>12661</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6942</v>
+        <v>7435</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>20317</v>
+        <v>20428</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05561694021248462</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03049210238139478</v>
+        <v>0.03265782107613346</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08924840463730366</v>
+        <v>0.08973580615401974</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>943976</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>899238</v>
+        <v>898408</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>992689</v>
+        <v>986265</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4967386619168959</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4731963822693593</v>
+        <v>0.4727599377942517</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5223720187488318</v>
+        <v>0.5189916189001883</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>741</v>
@@ -2560,19 +2560,19 @@
         <v>776275</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>747704</v>
+        <v>745563</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>802836</v>
+        <v>801375</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7604971340380345</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7325065410821872</v>
+        <v>0.7304087894599911</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7865176798845834</v>
+        <v>0.7850871541295982</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1641</v>
@@ -2581,19 +2581,19 @@
         <v>1720252</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1670105</v>
+        <v>1666712</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1771598</v>
+        <v>1773674</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5889063935591169</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5717392156594593</v>
+        <v>0.5705777378185081</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6064842879296803</v>
+        <v>0.6071949904434687</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>447842</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>414811</v>
+        <v>409690</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>490268</v>
+        <v>487085</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2356628895429793</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2182818092883003</v>
+        <v>0.2155869405717809</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2579886097081493</v>
+        <v>0.2563136758891666</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>159</v>
@@ -2631,19 +2631,19 @@
         <v>167437</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>144273</v>
+        <v>143724</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>192343</v>
+        <v>191571</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1640335270747439</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1413408707737071</v>
+        <v>0.1408029932328898</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1884337098652975</v>
+        <v>0.1876776367643768</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>589</v>
@@ -2652,19 +2652,19 @@
         <v>615278</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>571826</v>
+        <v>571765</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>662064</v>
+        <v>660039</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2106327329584978</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1957573259525437</v>
+        <v>0.1957366639233367</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2266492654377966</v>
+        <v>0.2259561123087039</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>374380</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>337425</v>
+        <v>339756</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>410040</v>
+        <v>411768</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1970062667701694</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1775597673277373</v>
+        <v>0.1787861267009364</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.215771143957104</v>
+        <v>0.2166801709328514</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>53</v>
@@ -2702,19 +2702,19 @@
         <v>53989</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>41254</v>
+        <v>41915</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>70703</v>
+        <v>71114</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05289157117794999</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04041547791024071</v>
+        <v>0.04106317987438281</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06926586217959946</v>
+        <v>0.06966811563771834</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>413</v>
@@ -2723,19 +2723,19 @@
         <v>428369</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>393220</v>
+        <v>389490</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>467557</v>
+        <v>467815</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1466468433089068</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1346139843453077</v>
+        <v>0.1333369328744108</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1600623894651169</v>
+        <v>0.1601504385566302</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>134150</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>113397</v>
+        <v>114843</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>159600</v>
+        <v>160332</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07059218176995535</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05967183482090141</v>
+        <v>0.06043276387895635</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08398480182835795</v>
+        <v>0.08436989055856374</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>23</v>
@@ -2773,19 +2773,19 @@
         <v>23046</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15359</v>
+        <v>14987</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>33729</v>
+        <v>34923</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02257776770927151</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01504678721544702</v>
+        <v>0.01468222681263694</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03304296943919451</v>
+        <v>0.03421321077103583</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>152</v>
@@ -2794,19 +2794,19 @@
         <v>157196</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>133208</v>
+        <v>134095</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>184904</v>
+        <v>184213</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05381403017347845</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04560216163016923</v>
+        <v>0.04590558983338206</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06329963740233251</v>
+        <v>0.06306315166163218</v>
       </c>
     </row>
     <row r="33">
@@ -3139,19 +3139,19 @@
         <v>36844</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27663</v>
+        <v>26877</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47074</v>
+        <v>46177</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4447047452590985</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3338868342998256</v>
+        <v>0.3244061414719106</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5681717620515014</v>
+        <v>0.5573439194356998</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -3160,19 +3160,19 @@
         <v>48990</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40094</v>
+        <v>39205</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58888</v>
+        <v>57465</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5579613707105719</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4566432677415944</v>
+        <v>0.4465204840482357</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6706944798125509</v>
+        <v>0.6544958678801052</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -3181,19 +3181,19 @@
         <v>85834</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72277</v>
+        <v>72418</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97800</v>
+        <v>97963</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5029756069978301</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4235333241213917</v>
+        <v>0.4243616759451793</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5730959821706765</v>
+        <v>0.5740530400817103</v>
       </c>
     </row>
     <row r="5">
@@ -3210,19 +3210,19 @@
         <v>16757</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10178</v>
+        <v>10363</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26523</v>
+        <v>24778</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2022486306953513</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.122850091512753</v>
+        <v>0.1250855726674338</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3201291636462598</v>
+        <v>0.2990675425053566</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -3231,19 +3231,19 @@
         <v>25016</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16606</v>
+        <v>16808</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33751</v>
+        <v>32888</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2849196572096446</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1891298209810968</v>
+        <v>0.1914319266918762</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3843997612946286</v>
+        <v>0.374573964755389</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -3252,19 +3252,19 @@
         <v>41773</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31016</v>
+        <v>31542</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54034</v>
+        <v>54503</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2447831132177662</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1817475000291604</v>
+        <v>0.1848313667998339</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3166302761745268</v>
+        <v>0.3193828876823376</v>
       </c>
     </row>
     <row r="6">
@@ -3281,19 +3281,19 @@
         <v>21307</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13246</v>
+        <v>13427</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30368</v>
+        <v>30712</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2571665884887566</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1598738525441822</v>
+        <v>0.1620608596791827</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3665350360123433</v>
+        <v>0.3706905677762985</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -3302,19 +3302,19 @@
         <v>8911</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4010</v>
+        <v>4034</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15709</v>
+        <v>15055</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1014955620752706</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04567350123315372</v>
+        <v>0.04594317637768262</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1789191487323125</v>
+        <v>0.1714700714083141</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -3323,19 +3323,19 @@
         <v>30218</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21126</v>
+        <v>21203</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>41637</v>
+        <v>42241</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1770733946406553</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1237933773833273</v>
+        <v>0.1242456316534783</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2439905493485428</v>
+        <v>0.2475293772451736</v>
       </c>
     </row>
     <row r="7">
@@ -3352,19 +3352,19 @@
         <v>7944</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3701</v>
+        <v>3732</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16223</v>
+        <v>16273</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09588003555679366</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04467514940453874</v>
+        <v>0.04504172954975841</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1958133648213515</v>
+        <v>0.196412498401246</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -3373,19 +3373,19 @@
         <v>4884</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1886</v>
+        <v>1921</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10610</v>
+        <v>10876</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05562341000451285</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02148461272961387</v>
+        <v>0.02187814873662894</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.120840613154496</v>
+        <v>0.1238743428212547</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -3394,19 +3394,19 @@
         <v>12828</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6650</v>
+        <v>6647</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22099</v>
+        <v>22241</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07516788514374846</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03897081131454946</v>
+        <v>0.03894776475562989</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1294950351427232</v>
+        <v>0.130327899929107</v>
       </c>
     </row>
     <row r="8">
@@ -3498,19 +3498,19 @@
         <v>167980</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>148311</v>
+        <v>148376</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>187672</v>
+        <v>189406</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4389108594305843</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3875205936913553</v>
+        <v>0.3876897367919582</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4903646121021919</v>
+        <v>0.4948949718062938</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>136</v>
@@ -3519,19 +3519,19 @@
         <v>147009</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>128707</v>
+        <v>129043</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>162906</v>
+        <v>163859</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5303501990462208</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4643260129670187</v>
+        <v>0.4655360603790459</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5877005975780467</v>
+        <v>0.5911386828674026</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>295</v>
@@ -3540,19 +3540,19 @@
         <v>314988</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>288682</v>
+        <v>288049</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>341205</v>
+        <v>342185</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4773194859930139</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4374564301447973</v>
+        <v>0.436496539862971</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5170473006567844</v>
+        <v>0.5185325843694686</v>
       </c>
     </row>
     <row r="10">
@@ -3569,19 +3569,19 @@
         <v>106616</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>89031</v>
+        <v>89353</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>124632</v>
+        <v>126182</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2785742097735844</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2326273812927658</v>
+        <v>0.2334695954963015</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3256475529704438</v>
+        <v>0.3296980367154043</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>86</v>
@@ -3590,19 +3590,19 @@
         <v>91668</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>76430</v>
+        <v>75532</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>108325</v>
+        <v>107403</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3307037500372065</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2757296849595576</v>
+        <v>0.2724901878484451</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3907945774846942</v>
+        <v>0.387467304133283</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>191</v>
@@ -3611,19 +3611,19 @@
         <v>198284</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>176543</v>
+        <v>174209</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>223212</v>
+        <v>222703</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3004709563300765</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2675257124829075</v>
+        <v>0.2639883424055843</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3382459634433866</v>
+        <v>0.3374744496525358</v>
       </c>
     </row>
     <row r="11">
@@ -3640,19 +3640,19 @@
         <v>67326</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>55176</v>
+        <v>54524</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>83925</v>
+        <v>84373</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1759155629211242</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1441684609999652</v>
+        <v>0.1424635777905468</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.219285156522777</v>
+        <v>0.2204566273762603</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -3661,19 +3661,19 @@
         <v>25236</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16516</v>
+        <v>16028</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37445</v>
+        <v>36189</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09103992173809401</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05958219756916259</v>
+        <v>0.05782377318390397</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1350862880800734</v>
+        <v>0.1305554376199684</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>92</v>
@@ -3682,19 +3682,19 @@
         <v>92562</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>74818</v>
+        <v>75987</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>112421</v>
+        <v>110910</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1402639842882409</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1133753489574915</v>
+        <v>0.1151471897098339</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1703571136852497</v>
+        <v>0.1680681983344469</v>
       </c>
     </row>
     <row r="12">
@@ -3711,19 +3711,19 @@
         <v>40798</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28084</v>
+        <v>28839</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55670</v>
+        <v>56879</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1065993678747071</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07338144176669079</v>
+        <v>0.07535324608635575</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1454584823888361</v>
+        <v>0.1486169708619913</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -3732,19 +3732,19 @@
         <v>13279</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7259</v>
+        <v>7102</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22412</v>
+        <v>21993</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04790612917847875</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02618678522022523</v>
+        <v>0.02562054839861577</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08085335389509754</v>
+        <v>0.07934079942881359</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>48</v>
@@ -3753,19 +3753,19 @@
         <v>54077</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39412</v>
+        <v>39739</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>68962</v>
+        <v>70168</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08194557338866862</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05972274566064983</v>
+        <v>0.0602188406883044</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1045015816133472</v>
+        <v>0.1063300657185428</v>
       </c>
     </row>
     <row r="13">
@@ -3857,19 +3857,19 @@
         <v>186494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>166989</v>
+        <v>165106</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>208615</v>
+        <v>206581</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.438681367499969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.392800863536254</v>
+        <v>0.3883723358258425</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4907179156430305</v>
+        <v>0.4859333737840395</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>163</v>
@@ -3878,19 +3878,19 @@
         <v>174318</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>157165</v>
+        <v>158704</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>190308</v>
+        <v>190464</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6098904809242512</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5498790496076905</v>
+        <v>0.5552625921719165</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6658347119750149</v>
+        <v>0.6663818810858982</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>340</v>
@@ -3899,19 +3899,19 @@
         <v>360811</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>332754</v>
+        <v>334001</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>389650</v>
+        <v>386677</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5075122230150874</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4680476738557668</v>
+        <v>0.4698015020382832</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5480762937269255</v>
+        <v>0.5438950695209733</v>
       </c>
     </row>
     <row r="15">
@@ -3928,19 +3928,19 @@
         <v>153648</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>135634</v>
+        <v>134550</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>173893</v>
+        <v>175551</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3614195478968806</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3190463899480228</v>
+        <v>0.3164955692319556</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4090410333543268</v>
+        <v>0.4129415671685163</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>77</v>
@@ -3949,19 +3949,19 @@
         <v>78247</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>64932</v>
+        <v>64547</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>94987</v>
+        <v>93789</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2737639511040074</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2271808573577633</v>
+        <v>0.225833392438617</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3323322771670469</v>
+        <v>0.3281439304734073</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>227</v>
@@ -3970,19 +3970,19 @@
         <v>231894</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>203802</v>
+        <v>206360</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>258118</v>
+        <v>258921</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3261795446209451</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2866650795420192</v>
+        <v>0.290263517057112</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3630658879398332</v>
+        <v>0.3641953871427772</v>
       </c>
     </row>
     <row r="16">
@@ -3999,19 +3999,19 @@
         <v>67479</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52750</v>
+        <v>53268</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83086</v>
+        <v>84558</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1587284369754389</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1240815145394856</v>
+        <v>0.1253003249065203</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1954405347042301</v>
+        <v>0.1989027519583348</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -4020,19 +4020,19 @@
         <v>19142</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11952</v>
+        <v>11223</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29275</v>
+        <v>28919</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06697155462404539</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04181645954777028</v>
+        <v>0.03926496827494775</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1024259094306088</v>
+        <v>0.1011808732741037</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>84</v>
@@ -4041,19 +4041,19 @@
         <v>86621</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>70774</v>
+        <v>70258</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>106929</v>
+        <v>107330</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1218396021153739</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0995495361475522</v>
+        <v>0.09882365486046268</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1504055111149045</v>
+        <v>0.1509687732706375</v>
       </c>
     </row>
     <row r="17">
@@ -4070,19 +4070,19 @@
         <v>17503</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11411</v>
+        <v>10810</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27208</v>
+        <v>27466</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04117064762771152</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02684110417711572</v>
+        <v>0.02542750906728547</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0639995061294765</v>
+        <v>0.06460799167832629</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -4091,19 +4091,19 @@
         <v>14112</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8013</v>
+        <v>7889</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23079</v>
+        <v>23281</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04937401334769595</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02803512778086039</v>
+        <v>0.02760057477289937</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08074846955492937</v>
+        <v>0.08145360605902255</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>32</v>
@@ -4112,19 +4112,19 @@
         <v>31615</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22691</v>
+        <v>21784</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44689</v>
+        <v>42324</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04446863024859367</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03191638658888724</v>
+        <v>0.03064128483503188</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0628594311330196</v>
+        <v>0.05953244602124438</v>
       </c>
     </row>
     <row r="18">
@@ -4216,19 +4216,19 @@
         <v>175559</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>155741</v>
+        <v>154996</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>196490</v>
+        <v>195885</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4788418028697679</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4247882772406812</v>
+        <v>0.4227561725100386</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5359313583809981</v>
+        <v>0.5342812473541786</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>124</v>
@@ -4237,19 +4237,19 @@
         <v>143820</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>125363</v>
+        <v>128652</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>157660</v>
+        <v>160348</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6382357915548367</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5563275893590011</v>
+        <v>0.5709254480959504</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6996542157926086</v>
+        <v>0.7115829858878052</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>278</v>
@@ -4258,19 +4258,19 @@
         <v>319380</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>293337</v>
+        <v>295128</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>341893</v>
+        <v>346194</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5395166272198465</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.495522808068708</v>
+        <v>0.4985490392155844</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5775478600178957</v>
+        <v>0.5848129991561358</v>
       </c>
     </row>
     <row r="20">
@@ -4287,19 +4287,19 @@
         <v>104445</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>86517</v>
+        <v>84343</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>123293</v>
+        <v>122914</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2848767376128096</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2359772795321144</v>
+        <v>0.2300481751785934</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3362833986428389</v>
+        <v>0.335250708759347</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -4308,19 +4308,19 @@
         <v>59371</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>46785</v>
+        <v>44302</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>75046</v>
+        <v>75298</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.263474200940178</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2076214872521452</v>
+        <v>0.1966010602384544</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3330362229451208</v>
+        <v>0.3341544932967672</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>142</v>
@@ -4329,19 +4329,19 @@
         <v>163817</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>143912</v>
+        <v>142338</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>189660</v>
+        <v>188419</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2767296602733761</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.243105963784888</v>
+        <v>0.2404456112548436</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.320385438492358</v>
+        <v>0.3182885956699303</v>
       </c>
     </row>
     <row r="21">
@@ -4358,19 +4358,19 @@
         <v>63331</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>48650</v>
+        <v>49496</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>78424</v>
+        <v>79207</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1727356111489976</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1326927037185975</v>
+        <v>0.1350004108968478</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2139041849761777</v>
+        <v>0.2160384135626996</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -4379,19 +4379,19 @@
         <v>14970</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8780</v>
+        <v>8570</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25350</v>
+        <v>24518</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06643235960281528</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03896198093115865</v>
+        <v>0.03803275251121117</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1124949605979796</v>
+        <v>0.1088040315871198</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>71</v>
@@ -4400,19 +4400,19 @@
         <v>78301</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>62264</v>
+        <v>62300</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>98898</v>
+        <v>97046</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1322702763605532</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.10518041361622</v>
+        <v>0.1052411421941584</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.167064084577088</v>
+        <v>0.1639367851983697</v>
       </c>
     </row>
     <row r="22">
@@ -4429,19 +4429,19 @@
         <v>23298</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14619</v>
+        <v>14372</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35501</v>
+        <v>35726</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06354584836842495</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03987318676200929</v>
+        <v>0.03920054178137529</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09683010184790701</v>
+        <v>0.09744277732322483</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -4450,19 +4450,19 @@
         <v>7179</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3095</v>
+        <v>2980</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13642</v>
+        <v>13982</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03185764790216996</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01373593653521489</v>
+        <v>0.01322249860272951</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06054016453302535</v>
+        <v>0.06204722609682622</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -4471,19 +4471,19 @@
         <v>30477</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20647</v>
+        <v>19824</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>43119</v>
+        <v>42598</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0514834361462242</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03487794515551357</v>
+        <v>0.03348875432488006</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07283982692150004</v>
+        <v>0.0719592847138779</v>
       </c>
     </row>
     <row r="23">
@@ -4575,19 +4575,19 @@
         <v>63738</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>49590</v>
+        <v>51323</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>76688</v>
+        <v>77312</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4050690714475625</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3151576118257674</v>
+        <v>0.3261657400420447</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4873705054422921</v>
+        <v>0.4913329962598282</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>42</v>
@@ -4596,19 +4596,19 @@
         <v>47053</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>38568</v>
+        <v>37981</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>55098</v>
+        <v>54104</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6751680632309879</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5534187666594028</v>
+        <v>0.5449870640033185</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7905996696527061</v>
+        <v>0.7763418410029609</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>101</v>
@@ -4617,19 +4617,19 @@
         <v>110791</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>95012</v>
+        <v>95318</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>126867</v>
+        <v>126450</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4879761886927391</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4184801545036407</v>
+        <v>0.4198265655652286</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5587863626138722</v>
+        <v>0.5569465619603061</v>
       </c>
     </row>
     <row r="25">
@@ -4646,19 +4646,19 @@
         <v>46795</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>34998</v>
+        <v>35839</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>58560</v>
+        <v>59725</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2973921941843181</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2224187136939485</v>
+        <v>0.227763637674877</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3721615828097171</v>
+        <v>0.379567035257014</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -4667,19 +4667,19 @@
         <v>18411</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11526</v>
+        <v>11922</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27083</v>
+        <v>27328</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2641798484559275</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1653938894846959</v>
+        <v>0.1710670990585062</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3886201341496994</v>
+        <v>0.3921316550906245</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>61</v>
@@ -4688,19 +4688,19 @@
         <v>65206</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>52255</v>
+        <v>52565</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>80103</v>
+        <v>80589</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2871976361701997</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2301582172637938</v>
+        <v>0.2315206398301188</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3528141493484538</v>
+        <v>0.3549521562845896</v>
       </c>
     </row>
     <row r="26">
@@ -4717,19 +4717,19 @@
         <v>31947</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>23431</v>
+        <v>21710</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43306</v>
+        <v>42968</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2030282195046261</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1489085760791808</v>
+        <v>0.137973600837747</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2752160300785561</v>
+        <v>0.2730717254751176</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6399</v>
+        <v>6517</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0293806112611102</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0918224835730834</v>
+        <v>0.09350570396173849</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>33</v>
@@ -4759,19 +4759,19 @@
         <v>33994</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>23626</v>
+        <v>24596</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>45477</v>
+        <v>46698</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1497269371824271</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1040592348932674</v>
+        <v>0.1083350449307005</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2003037444155682</v>
+        <v>0.2056825377180924</v>
       </c>
     </row>
     <row r="27">
@@ -4788,19 +4788,19 @@
         <v>14871</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8440</v>
+        <v>8459</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>24593</v>
+        <v>24527</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.09451051486349327</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05363987638522705</v>
+        <v>0.0537576208689894</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1562936176050438</v>
+        <v>0.1558762457666329</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6710</v>
+        <v>7541</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03127147705197445</v>
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09628797136540691</v>
+        <v>0.1082125562613376</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>15</v>
@@ -4830,19 +4830,19 @@
         <v>17051</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>10604</v>
+        <v>10467</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>27717</v>
+        <v>28154</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.07509923795463411</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04670416895233503</v>
+        <v>0.04610162850115346</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1220803779355805</v>
+        <v>0.1240061464403368</v>
       </c>
     </row>
     <row r="28">
@@ -4934,19 +4934,19 @@
         <v>630614</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>594178</v>
+        <v>594249</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>675111</v>
+        <v>671467</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4457657461658984</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4200097418648993</v>
+        <v>0.4200604123848457</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4772197716620163</v>
+        <v>0.4746436054820602</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>513</v>
@@ -4955,19 +4955,19 @@
         <v>561189</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>530620</v>
+        <v>529803</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>593396</v>
+        <v>593046</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5933224023746992</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5610031327132393</v>
+        <v>0.5601384952656574</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6273733487004776</v>
+        <v>0.627003327430224</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1098</v>
@@ -4976,19 +4976,19 @@
         <v>1191803</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1135080</v>
+        <v>1144130</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1243902</v>
+        <v>1244105</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5048905883167782</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4808604536178677</v>
+        <v>0.4846943622838964</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5269616139336422</v>
+        <v>0.5270472869718784</v>
       </c>
     </row>
     <row r="30">
@@ -5005,19 +5005,19 @@
         <v>428260</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>393929</v>
+        <v>393039</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>465536</v>
+        <v>465229</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3027263945391501</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2784589046991437</v>
+        <v>0.2778294987218611</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3290757636588892</v>
+        <v>0.3288591397272772</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>253</v>
@@ -5026,19 +5026,19 @@
         <v>272714</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>244458</v>
+        <v>244665</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>299159</v>
+        <v>302265</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2883288864355022</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2584550828048418</v>
+        <v>0.2586741547300622</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3162888666578499</v>
+        <v>0.3195727380167058</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>661</v>
@@ -5047,19 +5047,19 @@
         <v>700973</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>655648</v>
+        <v>654989</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>746707</v>
+        <v>747171</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2969574213469843</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.277755830610386</v>
+        <v>0.2774766864901975</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3163317280417049</v>
+        <v>0.3165285470550602</v>
       </c>
     </row>
     <row r="31">
@@ -5076,19 +5076,19 @@
         <v>251389</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>221120</v>
+        <v>224678</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>280497</v>
+        <v>281369</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1777007138276626</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1563044164740235</v>
+        <v>0.1588196440077887</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1982766936655945</v>
+        <v>0.1988929391103537</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>66</v>
@@ -5097,19 +5097,19 @@
         <v>70306</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>54866</v>
+        <v>55836</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>89253</v>
+        <v>87442</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07433172858412321</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05800710436722127</v>
+        <v>0.05903355242576893</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09436334617298725</v>
+        <v>0.09244872534836104</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>308</v>
@@ -5118,19 +5118,19 @@
         <v>321695</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>292602</v>
+        <v>289310</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>358887</v>
+        <v>355170</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1362815390316945</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1239567917020881</v>
+        <v>0.1225620240976078</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.152037238942479</v>
+        <v>0.1504625261551145</v>
       </c>
     </row>
     <row r="32">
@@ -5147,19 +5147,19 @@
         <v>104413</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>85384</v>
+        <v>84534</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>127058</v>
+        <v>123907</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07380714546728889</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06035588566585625</v>
+        <v>0.05975483616467211</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08981391917363997</v>
+        <v>0.08758675096761474</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>41</v>
@@ -5168,19 +5168,19 @@
         <v>41633</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>29955</v>
+        <v>30831</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>55570</v>
+        <v>56211</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04401698260567533</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03166970581711491</v>
+        <v>0.03259675964782519</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05875192883059829</v>
+        <v>0.05943007464674473</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>134</v>
@@ -5189,19 +5189,19 @@
         <v>146046</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>121795</v>
+        <v>122772</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>172359</v>
+        <v>173246</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06187045130454295</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05159679464624685</v>
+        <v>0.05201069227997419</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07301745993696061</v>
+        <v>0.0733933828287915</v>
       </c>
     </row>
     <row r="33">
@@ -5534,19 +5534,19 @@
         <v>29957</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21364</v>
+        <v>21630</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39363</v>
+        <v>39191</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.383419616517932</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2734349599846582</v>
+        <v>0.2768447310084163</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5038033088401311</v>
+        <v>0.501601441382315</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -5555,19 +5555,19 @@
         <v>40721</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31932</v>
+        <v>31277</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50064</v>
+        <v>50432</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4478946856399907</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3512280030273453</v>
+        <v>0.3440254091361332</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5506636647305225</v>
+        <v>0.554711185842845</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>70</v>
@@ -5576,19 +5576,19 @@
         <v>70678</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58598</v>
+        <v>56537</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83756</v>
+        <v>82059</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4180950663954884</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3466347590916751</v>
+        <v>0.3344464211897316</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4954593493969953</v>
+        <v>0.4854155276016879</v>
       </c>
     </row>
     <row r="5">
@@ -5605,19 +5605,19 @@
         <v>31397</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22117</v>
+        <v>22655</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39922</v>
+        <v>40891</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4018408491582248</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2830745015974477</v>
+        <v>0.2899636828271073</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5109604648937113</v>
+        <v>0.5233613881009609</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -5626,19 +5626,19 @@
         <v>32952</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24584</v>
+        <v>23928</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42551</v>
+        <v>42236</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3624496230148151</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2704061197313045</v>
+        <v>0.2631883255311537</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4680209660644855</v>
+        <v>0.4645586659442814</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -5647,19 +5647,19 @@
         <v>64349</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50961</v>
+        <v>52139</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>77879</v>
+        <v>77911</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3806557848170689</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3014583777506076</v>
+        <v>0.3084273816191205</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4606943718931924</v>
+        <v>0.4608809442723312</v>
       </c>
     </row>
     <row r="6">
@@ -5676,19 +5676,19 @@
         <v>13618</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7812</v>
+        <v>7997</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20785</v>
+        <v>21387</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1742958906202212</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09998341554723592</v>
+        <v>0.1023468449119647</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.26601893126658</v>
+        <v>0.273729447539387</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -5697,19 +5697,19 @@
         <v>12371</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6757</v>
+        <v>6896</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20391</v>
+        <v>20526</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1360752177995781</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07432507718636201</v>
+        <v>0.07584607518240402</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2242865657126595</v>
+        <v>0.2257724532858343</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -5718,19 +5718,19 @@
         <v>25990</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17393</v>
+        <v>17391</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>36116</v>
+        <v>36053</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1537403636122592</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1028894357112012</v>
+        <v>0.1028774359411821</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2136410715804435</v>
+        <v>0.2132684811655988</v>
       </c>
     </row>
     <row r="7">
@@ -5747,19 +5747,19 @@
         <v>3160</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8516</v>
+        <v>9685</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04044364370362206</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01091075953771639</v>
+        <v>0.01076889966856274</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1089939866710229</v>
+        <v>0.1239533499515599</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -5768,19 +5768,19 @@
         <v>4871</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1882</v>
+        <v>1890</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10346</v>
+        <v>9982</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05358047354561601</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02070007860852377</v>
+        <v>0.02078524156317316</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1137968339858562</v>
+        <v>0.1097897659378924</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -5789,19 +5789,19 @@
         <v>8031</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3740</v>
+        <v>3716</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14824</v>
+        <v>14876</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04750878517518351</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02212653677876466</v>
+        <v>0.02198217317972183</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08769128839812597</v>
+        <v>0.08799683285994638</v>
       </c>
     </row>
     <row r="8">
@@ -5893,19 +5893,19 @@
         <v>121270</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>104734</v>
+        <v>103396</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>140643</v>
+        <v>139236</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3543106408780452</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.30599650525028</v>
+        <v>0.3020877642348728</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4109118880522667</v>
+        <v>0.4067993949440175</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>152</v>
@@ -5914,19 +5914,19 @@
         <v>148453</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>131448</v>
+        <v>132758</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>163841</v>
+        <v>163967</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5423627486597635</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4802338751358345</v>
+        <v>0.4850213261716834</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5985803428068791</v>
+        <v>0.5990420093675576</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>271</v>
@@ -5935,19 +5935,19 @@
         <v>269724</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>246679</v>
+        <v>247133</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>293851</v>
+        <v>294686</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4378722486686316</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4004601957627228</v>
+        <v>0.4011973843350808</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4770403690381154</v>
+        <v>0.4783950549493123</v>
       </c>
     </row>
     <row r="10">
@@ -5964,19 +5964,19 @@
         <v>113826</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98401</v>
+        <v>96189</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>131979</v>
+        <v>130536</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3325604484809854</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2874953027403959</v>
+        <v>0.2810307848591919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3855982626487936</v>
+        <v>0.3813816029844344</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -5985,19 +5985,19 @@
         <v>76664</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63055</v>
+        <v>62795</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92672</v>
+        <v>90926</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2800846993554468</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2303647159815989</v>
+        <v>0.2294165945373305</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3385695690769162</v>
+        <v>0.3321926289021186</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>188</v>
@@ -6006,19 +6006,19 @@
         <v>190490</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>167315</v>
+        <v>169608</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>212419</v>
+        <v>213648</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3092426669433527</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2716205389873101</v>
+        <v>0.2753437545442251</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.344842720971045</v>
+        <v>0.3468377078949478</v>
       </c>
     </row>
     <row r="11">
@@ -6035,19 +6035,19 @@
         <v>71284</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56723</v>
+        <v>57470</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>87635</v>
+        <v>86213</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2082669061158189</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1657246015000596</v>
+        <v>0.1679069253752313</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2560400643658201</v>
+        <v>0.2518857344990713</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>38</v>
@@ -6056,19 +6056,19 @@
         <v>35595</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26109</v>
+        <v>25372</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47456</v>
+        <v>46814</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1300446382483315</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09538733216442702</v>
+        <v>0.09269290541493852</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1733778545407409</v>
+        <v>0.1710310696711633</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>104</v>
@@ -6077,19 +6077,19 @@
         <v>106879</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>88350</v>
+        <v>88289</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>127442</v>
+        <v>127588</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1735085694763792</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1434278799722663</v>
+        <v>0.143329810610306</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2068900595123531</v>
+        <v>0.2071266388994515</v>
       </c>
     </row>
     <row r="12">
@@ -6106,19 +6106,19 @@
         <v>35891</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24659</v>
+        <v>25525</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47573</v>
+        <v>48647</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1048620045251506</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07204480957114784</v>
+        <v>0.07457640359990121</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1389934040109512</v>
+        <v>0.1421305615057788</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -6127,19 +6127,19 @@
         <v>13004</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7191</v>
+        <v>6936</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21250</v>
+        <v>21846</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04750791373645814</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02627283556535003</v>
+        <v>0.02533958227957142</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07763378261729104</v>
+        <v>0.07981253384852093</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -6148,19 +6148,19 @@
         <v>48895</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>36779</v>
+        <v>35955</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>65239</v>
+        <v>63478</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07937651491163655</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05970773777471026</v>
+        <v>0.05836901209761548</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1059097267164427</v>
+        <v>0.1030501611285349</v>
       </c>
     </row>
     <row r="13">
@@ -6252,19 +6252,19 @@
         <v>197512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>178567</v>
+        <v>174766</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>218569</v>
+        <v>216897</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.433871299218382</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3922559123726327</v>
+        <v>0.3839060670177279</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4801276634209241</v>
+        <v>0.4764545153610378</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>170</v>
@@ -6273,19 +6273,19 @@
         <v>170663</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>154776</v>
+        <v>153511</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>189126</v>
+        <v>188248</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.540952507853053</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4905959356523794</v>
+        <v>0.4865867057332599</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5994736569563111</v>
+        <v>0.5966908181363215</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>359</v>
@@ -6294,19 +6294,19 @@
         <v>368174</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>340507</v>
+        <v>340537</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>397337</v>
+        <v>396886</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.477704000296995</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4418064973395824</v>
+        <v>0.4418448157261195</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.515542761341894</v>
+        <v>0.5149570832055854</v>
       </c>
     </row>
     <row r="15">
@@ -6323,19 +6323,19 @@
         <v>153351</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>134064</v>
+        <v>133550</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>174742</v>
+        <v>175267</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3368638597458247</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2944967739808169</v>
+        <v>0.2933668241494943</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3838538851111488</v>
+        <v>0.3850076765728484</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>98</v>
@@ -6344,19 +6344,19 @@
         <v>96188</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>80240</v>
+        <v>81090</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>111705</v>
+        <v>112594</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3048871133673492</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2543361853634222</v>
+        <v>0.2570322950641305</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3540723946347955</v>
+        <v>0.3568891798632935</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>245</v>
@@ -6365,19 +6365,19 @@
         <v>249538</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>223281</v>
+        <v>223049</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>275664</v>
+        <v>274569</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3237744747515232</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2897055327483873</v>
+        <v>0.2894043251281336</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3576728357191998</v>
+        <v>0.3562524822920267</v>
       </c>
     </row>
     <row r="16">
@@ -6394,19 +6394,19 @@
         <v>74271</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59735</v>
+        <v>59591</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91080</v>
+        <v>91370</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1631502384604775</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1312195047717598</v>
+        <v>0.1309017286223164</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2000737841078789</v>
+        <v>0.2007105653433313</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -6415,19 +6415,19 @@
         <v>30970</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21864</v>
+        <v>21889</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42164</v>
+        <v>42537</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09816626428476591</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06930122383954351</v>
+        <v>0.06938300735809121</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1336471018984611</v>
+        <v>0.1348311876783795</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -6436,19 +6436,19 @@
         <v>105241</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>85772</v>
+        <v>86219</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>125590</v>
+        <v>125940</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1365496504463635</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1112888459981047</v>
+        <v>0.1118690224914319</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1629526360349789</v>
+        <v>0.163406228254878</v>
       </c>
     </row>
     <row r="17">
@@ -6465,19 +6465,19 @@
         <v>30097</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20191</v>
+        <v>20904</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42904</v>
+        <v>42974</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06611460257531576</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04435354717380751</v>
+        <v>0.04592054308929592</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0942460677093637</v>
+        <v>0.09439943079394464</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -6486,19 +6486,19 @@
         <v>17665</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10643</v>
+        <v>10834</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26437</v>
+        <v>27934</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0559941144948318</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03373498357775438</v>
+        <v>0.03434054761248415</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08379915544506773</v>
+        <v>0.08854159644121119</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -6507,19 +6507,19 @@
         <v>47763</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35597</v>
+        <v>34406</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>63402</v>
+        <v>63268</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06197187450511834</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04618646003833865</v>
+        <v>0.04464128790052974</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08226429265475477</v>
+        <v>0.08208949019066375</v>
       </c>
     </row>
     <row r="18">
@@ -6611,19 +6611,19 @@
         <v>154696</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>134871</v>
+        <v>131844</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>177599</v>
+        <v>175331</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4267246345611791</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3720382118850297</v>
+        <v>0.3636878454446921</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4899026307998883</v>
+        <v>0.4836452863710078</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>122</v>
@@ -6632,19 +6632,19 @@
         <v>130925</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>113976</v>
+        <v>115485</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>145089</v>
+        <v>146095</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5407408097784956</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4707390447137396</v>
+        <v>0.4769717893158103</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5992414221766227</v>
+        <v>0.6033956262419855</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>259</v>
@@ -6653,19 +6653,19 @@
         <v>285620</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>258528</v>
+        <v>261584</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>308755</v>
+        <v>311253</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4723810727208031</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4275735577366043</v>
+        <v>0.4326281971398849</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5106427766646864</v>
+        <v>0.5147748192357398</v>
       </c>
     </row>
     <row r="20">
@@ -6682,19 +6682,19 @@
         <v>121937</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>102004</v>
+        <v>102961</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>142425</v>
+        <v>142387</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3363609313083553</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2813751605947412</v>
+        <v>0.2840143630570739</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3928746747165976</v>
+        <v>0.3927700881806377</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>65</v>
@@ -6703,19 +6703,19 @@
         <v>71341</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>57592</v>
+        <v>57181</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>86369</v>
+        <v>86931</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2946516061473224</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2378627988350336</v>
+        <v>0.2361661347131222</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3567172565072902</v>
+        <v>0.3590390445887033</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>175</v>
@@ -6724,19 +6724,19 @@
         <v>193279</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>170880</v>
+        <v>168356</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>216025</v>
+        <v>217841</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3196589219551673</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.282614985584721</v>
+        <v>0.2784397310895343</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3572786729945763</v>
+        <v>0.360282837127218</v>
       </c>
     </row>
     <row r="21">
@@ -6753,19 +6753,19 @@
         <v>60971</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>46898</v>
+        <v>47082</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>76434</v>
+        <v>76086</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1681883535498541</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1293660822547202</v>
+        <v>0.1298757075963093</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2108407081307791</v>
+        <v>0.2098814745891229</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>26</v>
@@ -6774,19 +6774,19 @@
         <v>29012</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19974</v>
+        <v>20024</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>41948</v>
+        <v>40772</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1198247082364169</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08249488638194885</v>
+        <v>0.08270305549520997</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1732518557304633</v>
+        <v>0.1683970576208653</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>82</v>
@@ -6795,19 +6795,19 @@
         <v>89984</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>72346</v>
+        <v>72023</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>109553</v>
+        <v>107431</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1488216998516552</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1196516532809064</v>
+        <v>0.1191174040568373</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1811876223373458</v>
+        <v>0.1776776110122871</v>
       </c>
     </row>
     <row r="22">
@@ -6824,19 +6824,19 @@
         <v>24915</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16650</v>
+        <v>16143</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37035</v>
+        <v>38035</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06872608058061147</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04592842136827616</v>
+        <v>0.04453047399677092</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1021610305275945</v>
+        <v>0.1049196510853555</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -6845,19 +6845,19 @@
         <v>10843</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5072</v>
+        <v>5102</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20494</v>
+        <v>20146</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.044782875837765</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02094819975889174</v>
+        <v>0.02107176242387257</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08464363134466829</v>
+        <v>0.08320816982984962</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -6866,19 +6866,19 @@
         <v>35757</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24784</v>
+        <v>25303</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49991</v>
+        <v>51196</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05913830547237437</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04098956287801205</v>
+        <v>0.04184876447388525</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08267878980971075</v>
+        <v>0.08467153377781804</v>
       </c>
     </row>
     <row r="23">
@@ -6970,19 +6970,19 @@
         <v>81837</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>68649</v>
+        <v>67446</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>95849</v>
+        <v>95146</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5002470321864418</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4196345101420536</v>
+        <v>0.4122820078777615</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.585898999949362</v>
+        <v>0.5816017897835594</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>56</v>
@@ -6991,19 +6991,19 @@
         <v>66344</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>55279</v>
+        <v>54370</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>77195</v>
+        <v>76348</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6265979023573971</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5220985081032709</v>
+        <v>0.513512818802758</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7290850337818521</v>
+        <v>0.721088401695585</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>127</v>
@@ -7012,19 +7012,19 @@
         <v>148180</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>132360</v>
+        <v>131866</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>166203</v>
+        <v>165381</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5498919118711207</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.49118592857441</v>
+        <v>0.489350485200613</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.616773948070349</v>
+        <v>0.6137239627647363</v>
       </c>
     </row>
     <row r="25">
@@ -7041,19 +7041,19 @@
         <v>55488</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>40760</v>
+        <v>42924</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>67127</v>
+        <v>68456</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3391837594940086</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2491530721086201</v>
+        <v>0.2623844120431033</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4103310760241314</v>
+        <v>0.4184549127840779</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -7062,19 +7062,19 @@
         <v>29994</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20257</v>
+        <v>21228</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41097</v>
+        <v>41602</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2832850927407473</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1913212064421905</v>
+        <v>0.2004886117083078</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3881525440023949</v>
+        <v>0.392919639630458</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>76</v>
@@ -7083,19 +7083,19 @@
         <v>85482</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>70266</v>
+        <v>69573</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>101776</v>
+        <v>101793</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3172204553889805</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2607556197381725</v>
+        <v>0.2581834072136124</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3776865574861447</v>
+        <v>0.37775154137012</v>
       </c>
     </row>
     <row r="26">
@@ -7112,19 +7112,19 @@
         <v>15326</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8879</v>
+        <v>8512</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25509</v>
+        <v>25006</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09368101161912654</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05427529245402869</v>
+        <v>0.0520285168566299</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1559291126698282</v>
+        <v>0.1528560546010457</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -7133,19 +7133,19 @@
         <v>5498</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2181</v>
+        <v>2136</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12061</v>
+        <v>12313</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05193148862802706</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02060158960962188</v>
+        <v>0.02016942855404935</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1139114745772141</v>
+        <v>0.1162893477245973</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -7154,19 +7154,19 @@
         <v>20824</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12608</v>
+        <v>12859</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31142</v>
+        <v>32039</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07727708782357583</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04678948180886192</v>
+        <v>0.04771931244140367</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1155661878968486</v>
+        <v>0.1188970342243557</v>
       </c>
     </row>
     <row r="27">
@@ -7183,19 +7183,19 @@
         <v>10942</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5578</v>
+        <v>5485</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>19142</v>
+        <v>19088</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06688819670042306</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03409963756902409</v>
+        <v>0.03352972719194435</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1170086571432121</v>
+        <v>0.1166824043105201</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -7204,19 +7204,19 @@
         <v>4043</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1023</v>
+        <v>1046</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>12005</v>
+        <v>11449</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03818551627382855</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.009662509338294867</v>
+        <v>0.009883311115364776</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1133865941736117</v>
+        <v>0.1081321090673292</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>13</v>
@@ -7225,19 +7225,19 @@
         <v>14985</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>8034</v>
+        <v>8520</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>25084</v>
+        <v>25254</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05561054491632296</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02981340640004592</v>
+        <v>0.03161698741822047</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09308588419483353</v>
+        <v>0.09371764420644293</v>
       </c>
     </row>
     <row r="28">
@@ -7329,19 +7329,19 @@
         <v>585272</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>549485</v>
+        <v>547906</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>622071</v>
+        <v>623708</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.417530637697771</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3920001204871518</v>
+        <v>0.3908737414938689</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4437832067354051</v>
+        <v>0.4449507454398357</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>542</v>
@@ -7350,19 +7350,19 @@
         <v>557105</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>526945</v>
+        <v>526161</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>590373</v>
+        <v>590420</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5418690741641732</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5125337514987618</v>
+        <v>0.5117710787778389</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5742273321271718</v>
+        <v>0.5742726058282267</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1086</v>
@@ -7371,19 +7371,19 @@
         <v>1142377</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1091415</v>
+        <v>1094253</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1193571</v>
+        <v>1190251</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4701403993470595</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4491669988242125</v>
+        <v>0.4503351643501959</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4912089323978271</v>
+        <v>0.4898428216335377</v>
       </c>
     </row>
     <row r="30">
@@ -7400,19 +7400,19 @@
         <v>475999</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>439432</v>
+        <v>439824</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>513104</v>
+        <v>513462</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3395755064455065</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3134887759599129</v>
+        <v>0.3137683401254407</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3660460120910844</v>
+        <v>0.3663019586095897</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>302</v>
@@ -7421,19 +7421,19 @@
         <v>307139</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>276962</v>
+        <v>277415</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>337204</v>
+        <v>335885</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2987390786909366</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2693870931817952</v>
+        <v>0.2698275059568305</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3279817563198114</v>
+        <v>0.3266986535190681</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>746</v>
@@ -7442,19 +7442,19 @@
         <v>783138</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>736308</v>
+        <v>740245</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>827432</v>
+        <v>831041</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3222969014394284</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3030245343411883</v>
+        <v>0.3046445748126622</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3405260281890846</v>
+        <v>0.342011374977448</v>
       </c>
     </row>
     <row r="31">
@@ -7471,19 +7471,19 @@
         <v>235470</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>209225</v>
+        <v>204927</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>265502</v>
+        <v>264518</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1679833132451104</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1492604208626355</v>
+        <v>0.1461937756402593</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1894083643638338</v>
+        <v>0.1887061975389904</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>113</v>
@@ -7492,19 +7492,19 @@
         <v>113447</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>95390</v>
+        <v>95656</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>136966</v>
+        <v>134922</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1103446793695541</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09278090400558484</v>
+        <v>0.09304013681537995</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1332196493706145</v>
+        <v>0.131232412421419</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>332</v>
@@ -7513,19 +7513,19 @@
         <v>348917</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>309400</v>
+        <v>315915</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>382633</v>
+        <v>386146</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1435954017017398</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1273323074237912</v>
+        <v>0.1300133456588267</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1574708884312047</v>
+        <v>0.1589166495596885</v>
       </c>
     </row>
     <row r="32">
@@ -7542,19 +7542,19 @@
         <v>105006</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>86846</v>
+        <v>84930</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>126341</v>
+        <v>126199</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07491054261161202</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.061955695903619</v>
+        <v>0.06058907024999278</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09013097863411057</v>
+        <v>0.09002988009466317</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>47</v>
@@ -7563,19 +7563,19 @@
         <v>50426</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37813</v>
+        <v>37921</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>66805</v>
+        <v>66009</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04904716777533612</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03677873325395802</v>
+        <v>0.03688408386313512</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06497762977351793</v>
+        <v>0.0642033386238013</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>144</v>
@@ -7584,19 +7584,19 @@
         <v>155432</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>131805</v>
+        <v>131300</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>180012</v>
+        <v>181713</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06396729751177235</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0542438947013109</v>
+        <v>0.05403586294209897</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07408311863354888</v>
+        <v>0.07478324776318016</v>
       </c>
     </row>
     <row r="33">
@@ -7929,19 +7929,19 @@
         <v>18997</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8213</v>
+        <v>9116</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31082</v>
+        <v>30815</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3966933529320621</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1715039284706893</v>
+        <v>0.1903512679684253</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6490339196390118</v>
+        <v>0.6434605231104623</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -7950,19 +7950,19 @@
         <v>20152</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11514</v>
+        <v>12282</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29016</v>
+        <v>29722</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4253739984335151</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2430457567807877</v>
+        <v>0.2592444946398373</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6124775188326834</v>
+        <v>0.6273734461445256</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -7971,19 +7971,19 @@
         <v>39149</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27034</v>
+        <v>27122</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53643</v>
+        <v>53093</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4109564282684112</v>
+        <v>0.4109564282684111</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2837782273476701</v>
+        <v>0.2847057893620185</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5630934951784297</v>
+        <v>0.5573295885364293</v>
       </c>
     </row>
     <row r="5">
@@ -8000,19 +8000,19 @@
         <v>21091</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11691</v>
+        <v>11263</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32405</v>
+        <v>32771</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.440421253261034</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2441372560913993</v>
+        <v>0.2351904126163711</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.67667330104451</v>
+        <v>0.6843075203874683</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -8021,19 +8021,19 @@
         <v>15241</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8075</v>
+        <v>8615</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23572</v>
+        <v>24500</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3217053086876779</v>
+        <v>0.3217053086876778</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1704480677404558</v>
+        <v>0.1818539264571715</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4975562937922259</v>
+        <v>0.517142862206421</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -8042,19 +8042,19 @@
         <v>36332</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24211</v>
+        <v>23874</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49604</v>
+        <v>49306</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3813830262103271</v>
+        <v>0.381383026210327</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2541496672417856</v>
+        <v>0.2506076841955929</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5207019592143152</v>
+        <v>0.5175671870513595</v>
       </c>
     </row>
     <row r="6">
@@ -8071,19 +8071,19 @@
         <v>7800</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2014</v>
+        <v>2131</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19048</v>
+        <v>18391</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1628853938069038</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04206140708515521</v>
+        <v>0.04449640694492422</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3977529571005147</v>
+        <v>0.3840379544638553</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -8092,19 +8092,19 @@
         <v>8003</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2745</v>
+        <v>2626</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16630</v>
+        <v>16331</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.168925533399584</v>
+        <v>0.1689255333995839</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05793157655812869</v>
+        <v>0.05543807144232936</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3510337353139109</v>
+        <v>0.3447281192661487</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -8113,19 +8113,19 @@
         <v>15803</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7477</v>
+        <v>7327</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28732</v>
+        <v>27833</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1658891953094919</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07848443083083316</v>
+        <v>0.07691204711180399</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3016021319689409</v>
+        <v>0.292164017899322</v>
       </c>
     </row>
     <row r="7">
@@ -8158,16 +8158,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12186</v>
+        <v>12266</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08399515947922329</v>
+        <v>0.08399515947922327</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2572309841522117</v>
+        <v>0.2589095001496304</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -8179,16 +8179,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13478</v>
+        <v>14445</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04177135021176987</v>
+        <v>0.04177135021176986</v>
       </c>
       <c r="V7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1414777722151475</v>
+        <v>0.1516344863645731</v>
       </c>
     </row>
     <row r="8">
@@ -8280,19 +8280,19 @@
         <v>80374</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>63136</v>
+        <v>61755</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>100876</v>
+        <v>99954</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4048252883646545</v>
+        <v>0.4048252883646546</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3180031798437572</v>
+        <v>0.3110485307779315</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.508091339892019</v>
+        <v>0.503447961019176</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>87</v>
@@ -8301,19 +8301,19 @@
         <v>91539</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>78406</v>
+        <v>77709</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>103897</v>
+        <v>103631</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5731331982157014</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.490906127548274</v>
+        <v>0.4865449399733575</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6505094517464388</v>
+        <v>0.6488460412534521</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>134</v>
@@ -8322,19 +8322,19 @@
         <v>171912</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>150924</v>
+        <v>148566</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>194386</v>
+        <v>193683</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4798597580905188</v>
+        <v>0.4798597580905187</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4212775827792546</v>
+        <v>0.4146939800546796</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5425913255470061</v>
+        <v>0.5406297372355418</v>
       </c>
     </row>
     <row r="10">
@@ -8351,19 +8351,19 @@
         <v>79314</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61663</v>
+        <v>61541</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97826</v>
+        <v>98656</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3994885785709315</v>
+        <v>0.3994885785709316</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3105842824528267</v>
+        <v>0.3099705854446245</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4927270082680358</v>
+        <v>0.4969081244300392</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -8372,19 +8372,19 @@
         <v>52292</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40019</v>
+        <v>40675</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64813</v>
+        <v>64578</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3274087473073988</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2505606273287879</v>
+        <v>0.2546713307956166</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4058004424520995</v>
+        <v>0.404332962704068</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -8393,19 +8393,19 @@
         <v>131606</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>109017</v>
+        <v>109671</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>152790</v>
+        <v>152654</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.367354189155868</v>
+        <v>0.3673541891558679</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3043015981003205</v>
+        <v>0.3061256374712061</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4264840770181302</v>
+        <v>0.4261068749964941</v>
       </c>
     </row>
     <row r="11">
@@ -8422,19 +8422,19 @@
         <v>25111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14752</v>
+        <v>14220</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39601</v>
+        <v>38710</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1264795651225883</v>
+        <v>0.1264795651225884</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07430127268316682</v>
+        <v>0.07162384639726412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1994644360883218</v>
+        <v>0.1949738194212456</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -8443,19 +8443,19 @@
         <v>8176</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4083</v>
+        <v>3956</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15755</v>
+        <v>15827</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05118884440980159</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02556359132934045</v>
+        <v>0.02476790770269072</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09864388117203264</v>
+        <v>0.09909598437546531</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -8464,19 +8464,19 @@
         <v>33287</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21746</v>
+        <v>21289</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47701</v>
+        <v>48175</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.09291370770708227</v>
+        <v>0.09291370770708225</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06069953292784043</v>
+        <v>0.05942353688653682</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1331489636749468</v>
+        <v>0.1344704640085544</v>
       </c>
     </row>
     <row r="12">
@@ -8493,19 +8493,19 @@
         <v>13740</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5378</v>
+        <v>4951</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27870</v>
+        <v>26313</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0692065679418255</v>
+        <v>0.06920656794182552</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02708939487983305</v>
+        <v>0.02493725690224216</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1403740141760027</v>
+        <v>0.132532890466714</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -8514,19 +8514,19 @@
         <v>7709</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3201</v>
+        <v>3282</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15442</v>
+        <v>14513</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04826921006709813</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02004098853131135</v>
+        <v>0.020549231804766</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09668381133774191</v>
+        <v>0.09086509478811314</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -8535,19 +8535,19 @@
         <v>21450</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10791</v>
+        <v>10958</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>34941</v>
+        <v>37685</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05987234504653095</v>
+        <v>0.05987234504653093</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03012172589620359</v>
+        <v>0.03058626058212283</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09753029787504117</v>
+        <v>0.1051906962611395</v>
       </c>
     </row>
     <row r="13">
@@ -8639,19 +8639,19 @@
         <v>122219</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>103925</v>
+        <v>102863</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>140349</v>
+        <v>139048</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4441991569725466</v>
+        <v>0.4441991569725465</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.377712088400219</v>
+        <v>0.3738525900076898</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5100918743571715</v>
+        <v>0.505363446299552</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>127</v>
@@ -8660,19 +8660,19 @@
         <v>94582</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>84301</v>
+        <v>82792</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>106570</v>
+        <v>106404</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5290691107916289</v>
+        <v>0.529069110791629</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4715567944198497</v>
+        <v>0.4631162322424765</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5961280692019117</v>
+        <v>0.5951999399657592</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>228</v>
@@ -8681,19 +8681,19 @@
         <v>216801</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>197379</v>
+        <v>195716</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>237468</v>
+        <v>239044</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4776246131753284</v>
+        <v>0.4776246131753283</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4348360143480164</v>
+        <v>0.4311733502964809</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5231560821006981</v>
+        <v>0.5266280938860179</v>
       </c>
     </row>
     <row r="15">
@@ -8710,19 +8710,19 @@
         <v>112079</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>93595</v>
+        <v>95957</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>129498</v>
+        <v>130114</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4073471778289068</v>
+        <v>0.4073471778289067</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3401656938787629</v>
+        <v>0.3487526449522247</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4706540535649835</v>
+        <v>0.472893205909013</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>92</v>
@@ -8731,19 +8731,19 @@
         <v>64492</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>52851</v>
+        <v>53938</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>74277</v>
+        <v>76072</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3607546259054646</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2956360411577878</v>
+        <v>0.3017139080578425</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4154870435141506</v>
+        <v>0.4255291108571582</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>195</v>
@@ -8752,19 +8752,19 @@
         <v>176572</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>156399</v>
+        <v>155999</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>195629</v>
+        <v>199114</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3889970169814916</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3445552767581328</v>
+        <v>0.3436744571316165</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4309805300309926</v>
+        <v>0.4386583286532461</v>
       </c>
     </row>
     <row r="16">
@@ -8781,19 +8781,19 @@
         <v>24744</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15197</v>
+        <v>15584</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35995</v>
+        <v>35720</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08993289917216075</v>
+        <v>0.08993289917216074</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05523402011397522</v>
+        <v>0.05663992351236553</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1308219225484553</v>
+        <v>0.1298239135477004</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -8802,19 +8802,19 @@
         <v>11585</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6983</v>
+        <v>6220</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18907</v>
+        <v>18039</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06480108135556391</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03906010578621337</v>
+        <v>0.03479534616921323</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1057592400582705</v>
+        <v>0.1009074438413322</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -8823,19 +8823,19 @@
         <v>36329</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25582</v>
+        <v>26378</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47532</v>
+        <v>48485</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08003490302719204</v>
+        <v>0.08003490302719203</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05635779406138614</v>
+        <v>0.05811269026456457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1047166879067736</v>
+        <v>0.1068159597906193</v>
       </c>
     </row>
     <row r="17">
@@ -8852,19 +8852,19 @@
         <v>16102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8711</v>
+        <v>8740</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27789</v>
+        <v>28426</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05852076602638603</v>
+        <v>0.05852076602638602</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03165948588575469</v>
+        <v>0.03176426727205994</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1009962347814427</v>
+        <v>0.103314002598079</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -8873,19 +8873,19 @@
         <v>8112</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4019</v>
+        <v>4100</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13969</v>
+        <v>14067</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04537518194734256</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02248081346041494</v>
+        <v>0.02293257148466341</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07813838692765927</v>
+        <v>0.07868703112439246</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -8894,19 +8894,19 @@
         <v>24213</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15702</v>
+        <v>15901</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36265</v>
+        <v>36451</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.05334346681598799</v>
+        <v>0.05334346681598798</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0345914822085068</v>
+        <v>0.03503095343156529</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07989287629540383</v>
+        <v>0.08030265625431743</v>
       </c>
     </row>
     <row r="18">
@@ -8998,19 +8998,19 @@
         <v>118238</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>102350</v>
+        <v>100457</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>135045</v>
+        <v>136148</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4132549533922548</v>
+        <v>0.4132549533922547</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3577239032320892</v>
+        <v>0.3511067540621455</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4719977173943925</v>
+        <v>0.4758507529281372</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>188</v>
@@ -9019,19 +9019,19 @@
         <v>123803</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>111414</v>
+        <v>112178</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>135605</v>
+        <v>135479</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5527207200755434</v>
+        <v>0.5527207200755435</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4974101009884564</v>
+        <v>0.5008225230728618</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6054107465035268</v>
+        <v>0.6048476662594927</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>297</v>
@@ -9040,19 +9040,19 @@
         <v>242041</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>221853</v>
+        <v>221992</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>263114</v>
+        <v>265074</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4744949515872767</v>
+        <v>0.4744949515872766</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4349196132440641</v>
+        <v>0.4351909945985193</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5158071548827653</v>
+        <v>0.5196485352465775</v>
       </c>
     </row>
     <row r="20">
@@ -9069,19 +9069,19 @@
         <v>114231</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>97751</v>
+        <v>98223</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>130174</v>
+        <v>130786</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3992493597473251</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3416493609107655</v>
+        <v>0.3432999950731113</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4549723935163807</v>
+        <v>0.4571100806628826</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>129</v>
@@ -9090,19 +9090,19 @@
         <v>78288</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>66287</v>
+        <v>67109</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>89402</v>
+        <v>90019</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3495183569272132</v>
+        <v>0.3495183569272133</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2959384483904605</v>
+        <v>0.2996114418634692</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3991354960078098</v>
+        <v>0.4018920417473717</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>241</v>
@@ -9111,19 +9111,19 @@
         <v>192519</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>172982</v>
+        <v>172978</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>212893</v>
+        <v>212957</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3774122695755389</v>
+        <v>0.3774122695755388</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.339112493018379</v>
+        <v>0.3391042779673158</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4173536162758256</v>
+        <v>0.4174784902971052</v>
       </c>
     </row>
     <row r="21">
@@ -9140,19 +9140,19 @@
         <v>39760</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>28437</v>
+        <v>28773</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52587</v>
+        <v>52342</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1389652558756687</v>
+        <v>0.1389652558756686</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09938903525952729</v>
+        <v>0.100563092267107</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1837959994562433</v>
+        <v>0.1829410926236729</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -9161,19 +9161,19 @@
         <v>12978</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8235</v>
+        <v>8192</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19892</v>
+        <v>19733</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05793886913531143</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03676562645597101</v>
+        <v>0.03657119510358846</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08880866458562078</v>
+        <v>0.08809986170298628</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>56</v>
@@ -9182,19 +9182,19 @@
         <v>52738</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>40040</v>
+        <v>41014</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>67856</v>
+        <v>67833</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1033862324655948</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07849409022430891</v>
+        <v>0.0804038820358563</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1330253052050474</v>
+        <v>0.1329798459605794</v>
       </c>
     </row>
     <row r="22">
@@ -9211,19 +9211,19 @@
         <v>13885</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7332</v>
+        <v>7661</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23760</v>
+        <v>22783</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04853043098475157</v>
+        <v>0.04853043098475156</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02562716031966961</v>
+        <v>0.02677441207246745</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08304405919401134</v>
+        <v>0.07963044341750544</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -9232,19 +9232,19 @@
         <v>8920</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4924</v>
+        <v>4865</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15124</v>
+        <v>15166</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.03982205386193181</v>
+        <v>0.03982205386193182</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02198479752998156</v>
+        <v>0.02171912531468816</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06752142363088759</v>
+        <v>0.06770764599951033</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -9253,19 +9253,19 @@
         <v>22805</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15521</v>
+        <v>15464</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33169</v>
+        <v>34080</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.04470654637158969</v>
+        <v>0.04470654637158968</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03042797132389948</v>
+        <v>0.03031496352568673</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06502350533236563</v>
+        <v>0.06681097041958768</v>
       </c>
     </row>
     <row r="23">
@@ -9357,19 +9357,19 @@
         <v>72344</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>59998</v>
+        <v>59637</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>85576</v>
+        <v>84772</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4484166982644133</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3718870894561963</v>
+        <v>0.369650526851923</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.530433937397084</v>
+        <v>0.525446113106891</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>79</v>
@@ -9378,19 +9378,19 @@
         <v>50300</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>42498</v>
+        <v>42253</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>58289</v>
+        <v>57968</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4956957546572083</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4188147039355316</v>
+        <v>0.4163983428383241</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.574433570123519</v>
+        <v>0.5712700334398159</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>153</v>
@@ -9399,19 +9399,19 @@
         <v>122644</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>109234</v>
+        <v>107083</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>138735</v>
+        <v>136859</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4666717862018206</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4156462143372024</v>
+        <v>0.4074601746019971</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5278985065195765</v>
+        <v>0.5207598351833405</v>
       </c>
     </row>
     <row r="25">
@@ -9428,19 +9428,19 @@
         <v>70339</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>58475</v>
+        <v>57732</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>82038</v>
+        <v>81747</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4359867913046568</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3624465690233007</v>
+        <v>0.3578422875857186</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5085022354137686</v>
+        <v>0.5066992979723918</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>70</v>
@@ -9449,19 +9449,19 @@
         <v>38825</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31354</v>
+        <v>31505</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45871</v>
+        <v>47502</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3826173866707166</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3089870021732483</v>
+        <v>0.3104807786900837</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4520544771468476</v>
+        <v>0.4681281046612482</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>147</v>
@@ -9470,19 +9470,19 @@
         <v>109164</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>93319</v>
+        <v>94644</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>121892</v>
+        <v>123287</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4153801369191409</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3550874201608388</v>
+        <v>0.360128312104647</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4638109170302015</v>
+        <v>0.4691196806418252</v>
       </c>
     </row>
     <row r="26">
@@ -9499,19 +9499,19 @@
         <v>11542</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6134</v>
+        <v>6455</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19233</v>
+        <v>20534</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07153962568168076</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.038020985235325</v>
+        <v>0.04001056587617845</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1192153303756627</v>
+        <v>0.1272801428326517</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -9520,19 +9520,19 @@
         <v>6966</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3567</v>
+        <v>3743</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11589</v>
+        <v>12341</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.06864644697206886</v>
+        <v>0.06864644697206884</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03514814936713879</v>
+        <v>0.03688263243116472</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1142102961691396</v>
+        <v>0.1216141219863894</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -9541,19 +9541,19 @@
         <v>18507</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12187</v>
+        <v>12157</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>28118</v>
+        <v>27735</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07042252995701551</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04637282904498143</v>
+        <v>0.04625675843142386</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1069913686395714</v>
+        <v>0.1055335544545017</v>
       </c>
     </row>
     <row r="27">
@@ -9570,19 +9570,19 @@
         <v>7108</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3003</v>
+        <v>2997</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13795</v>
+        <v>14037</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04405688474924911</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01861641609284317</v>
+        <v>0.01857858496968887</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08550789878163895</v>
+        <v>0.0870071975115959</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>8</v>
@@ -9591,19 +9591,19 @@
         <v>5382</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2669</v>
+        <v>2578</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9873</v>
+        <v>9934</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05304041170000625</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02629939806028047</v>
+        <v>0.02540438708630456</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09729663450172893</v>
+        <v>0.09790026033598237</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>15</v>
@@ -9612,19 +9612,19 @@
         <v>12490</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6810</v>
+        <v>7041</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>20709</v>
+        <v>20011</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04752554692202317</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02591313147309734</v>
+        <v>0.02679321793544965</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07880045139237297</v>
+        <v>0.07614376199805063</v>
       </c>
     </row>
     <row r="28">
@@ -9716,19 +9716,19 @@
         <v>412172</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>376340</v>
+        <v>375677</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>445936</v>
+        <v>447002</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4253498030363782</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3883729496642838</v>
+        <v>0.3876885710360143</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4601937666420889</v>
+        <v>0.4612937071886409</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>493</v>
@@ -9737,19 +9737,19 @@
         <v>380375</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>355418</v>
+        <v>354132</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>403288</v>
+        <v>405961</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.5347434643645794</v>
+        <v>0.5347434643645793</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4996570273548837</v>
+        <v>0.4978504596104325</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5669545731101733</v>
+        <v>0.5707124736946578</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>831</v>
@@ -9758,19 +9758,19 @@
         <v>792547</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>751895</v>
+        <v>750814</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>832537</v>
+        <v>832773</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4716584135427034</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4474654558908148</v>
+        <v>0.4468224661801184</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4954571489035758</v>
+        <v>0.4955976206034753</v>
       </c>
     </row>
     <row r="30">
@@ -9787,19 +9787,19 @@
         <v>397054</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>361770</v>
+        <v>361429</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>431443</v>
+        <v>430991</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4097488380025988</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3733369079296271</v>
+        <v>0.3729843555594224</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4452373433881602</v>
+        <v>0.4447711165092438</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>353</v>
@@ -9808,19 +9808,19 @@
         <v>249139</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>227166</v>
+        <v>226725</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>273710</v>
+        <v>272570</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3502472351268971</v>
+        <v>0.350247235126897</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3193575529685405</v>
+        <v>0.3187365368774187</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3847902076914768</v>
+        <v>0.3831873463266167</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>708</v>
@@ -9829,19 +9829,19 @@
         <v>646193</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>605757</v>
+        <v>607190</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>685226</v>
+        <v>684608</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3845605728086393</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3604963760539195</v>
+        <v>0.3613491134487274</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4077901323127316</v>
+        <v>0.4074220752446349</v>
       </c>
     </row>
     <row r="31">
@@ -9858,19 +9858,19 @@
         <v>108958</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>88940</v>
+        <v>87826</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>135226</v>
+        <v>133357</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1124411735598534</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09178373177362122</v>
+        <v>0.090633889217896</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1395498772072952</v>
+        <v>0.1376212260876972</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>58</v>
@@ -9879,19 +9879,19 @@
         <v>47707</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>36249</v>
+        <v>36361</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>61364</v>
+        <v>62120</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.06706729251907424</v>
+        <v>0.06706729251907423</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05095977641708824</v>
+        <v>0.05111720994557524</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08626768545807167</v>
+        <v>0.08732986889688636</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>148</v>
@@ -9900,19 +9900,19 @@
         <v>156664</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>130691</v>
+        <v>134107</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>182150</v>
+        <v>184919</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09323346665283443</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07777676264823191</v>
+        <v>0.07980930975980309</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1084005507276772</v>
+        <v>0.1100484774986562</v>
       </c>
     </row>
     <row r="32">
@@ -9929,19 +9929,19 @@
         <v>50835</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>36175</v>
+        <v>36505</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>70757</v>
+        <v>71581</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05246018540116977</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0373315792074057</v>
+        <v>0.03767178800529227</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07301978767192673</v>
+        <v>0.0738695985537032</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>40</v>
@@ -9950,19 +9950,19 @@
         <v>34102</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>24232</v>
+        <v>25053</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>46769</v>
+        <v>47030</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.04794200798944939</v>
+        <v>0.04794200798944936</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03406589818789678</v>
+        <v>0.03522003506421368</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06574975576496091</v>
+        <v>0.06611563558179995</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>77</v>
@@ -9971,19 +9971,19 @@
         <v>84937</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>65757</v>
+        <v>67868</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>107554</v>
+        <v>106365</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0505475469958228</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03913324602887187</v>
+        <v>0.04038922967401724</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06400748958731207</v>
+        <v>0.06329949994648988</v>
       </c>
     </row>
     <row r="33">
